--- a/Detailed design document.xlsx
+++ b/Detailed design document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0BE26-49BB-497A-B1EF-003638BC717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94190FD-BD9B-4B52-9C82-56EA70C2EC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="26" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="32" r:id="rId1"/>
@@ -3801,10 +3801,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3832,6 +3828,10 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3883,52 +3883,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3942,6 +3900,48 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4104,8 +4104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7330440" y="160020"/>
-          <a:ext cx="1536700" cy="166370"/>
+          <a:off x="7429500" y="161925"/>
+          <a:ext cx="1559560" cy="170180"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -12173,11 +12173,11 @@
       <c r="F34" s="60"/>
       <c r="G34" s="63"/>
       <c r="H34" s="64"/>
-      <c r="I34" s="175" t="s">
+      <c r="I34" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="176"/>
-      <c r="K34" s="177"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="175"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
@@ -12210,9 +12210,9 @@
       <c r="F35" s="60"/>
       <c r="G35" s="63"/>
       <c r="H35" s="64"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="178"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -12485,13 +12485,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I34:K35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H6:AA7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -12501,6 +12494,13 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="I34:K35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H6:AA7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -14569,11 +14569,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H55:AA56"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I49:M50"/>
-    <mergeCell ref="I51:K52"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -14586,6 +14581,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="H55:AA56"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I49:M50"/>
+    <mergeCell ref="I51:K52"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15242,14 +15242,14 @@
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="175" t="s">
+      <c r="N18" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="177"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="175"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="60"/>
@@ -15279,12 +15279,12 @@
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="179"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="180"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="178"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="60"/>
@@ -16109,11 +16109,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="M11:U12"/>
-    <mergeCell ref="O16:R17"/>
-    <mergeCell ref="N18:S19"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -16126,6 +16121,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="M11:U12"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="N18:S19"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -16526,11 +16526,11 @@
     <row r="11" spans="1:33" ht="12.75" customHeight="1">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="205"/>
-      <c r="E11" s="206"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="217"/>
       <c r="F11" s="102"/>
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
@@ -16540,11 +16540,11 @@
       <c r="L11" s="103"/>
       <c r="M11" s="103"/>
       <c r="N11" s="104"/>
-      <c r="O11" s="204" t="s">
+      <c r="O11" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="206"/>
+      <c r="P11" s="216"/>
+      <c r="Q11" s="217"/>
       <c r="R11" s="102"/>
       <c r="S11" s="103"/>
       <c r="T11" s="103"/>
@@ -16565,11 +16565,11 @@
     <row r="12" spans="1:33" ht="12.75" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="204" t="s">
+      <c r="C12" s="215" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
       <c r="F12" s="102"/>
       <c r="G12" s="103"/>
       <c r="H12" s="103"/>
@@ -16579,11 +16579,11 @@
       <c r="L12" s="103"/>
       <c r="M12" s="103"/>
       <c r="N12" s="104"/>
-      <c r="O12" s="204" t="s">
+      <c r="O12" s="215" t="s">
         <v>133</v>
       </c>
-      <c r="P12" s="205"/>
-      <c r="Q12" s="206"/>
+      <c r="P12" s="216"/>
+      <c r="Q12" s="217"/>
       <c r="R12" s="102"/>
       <c r="S12" s="103"/>
       <c r="T12" s="103"/>
@@ -16604,11 +16604,11 @@
     <row r="13" spans="1:33" ht="12.75" customHeight="1">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="204" t="s">
+      <c r="C13" s="215" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="205"/>
-      <c r="E13" s="206"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
       <c r="F13" s="102"/>
       <c r="G13" s="103"/>
       <c r="H13" s="103"/>
@@ -16618,22 +16618,22 @@
       <c r="L13" s="103"/>
       <c r="M13" s="103"/>
       <c r="N13" s="104"/>
-      <c r="O13" s="204" t="s">
+      <c r="O13" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="P13" s="205"/>
-      <c r="Q13" s="206"/>
-      <c r="R13" s="201" t="s">
+      <c r="P13" s="216"/>
+      <c r="Q13" s="217"/>
+      <c r="R13" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="S13" s="202"/>
-      <c r="T13" s="202"/>
-      <c r="U13" s="202"/>
-      <c r="V13" s="202"/>
-      <c r="W13" s="202"/>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="202"/>
-      <c r="Z13" s="203"/>
+      <c r="S13" s="220"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="220"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="220"/>
+      <c r="Z13" s="219"/>
       <c r="AA13" s="101"/>
       <c r="AB13" s="117"/>
       <c r="AC13" s="25"/>
@@ -16645,11 +16645,11 @@
     <row r="14" spans="1:33" ht="12.75" customHeight="1">
       <c r="A14" s="45"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="204" t="s">
+      <c r="C14" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="217"/>
       <c r="F14" s="102"/>
       <c r="G14" s="103"/>
       <c r="H14" s="103"/>
@@ -16684,11 +16684,11 @@
     <row r="15" spans="1:33" ht="12.75" customHeight="1">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="218" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="219"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
@@ -16759,48 +16759,48 @@
       <c r="C17" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="207" t="s">
+      <c r="D17" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="208"/>
-      <c r="F17" s="207" t="s">
+      <c r="E17" s="214"/>
+      <c r="F17" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="208"/>
-      <c r="H17" s="207" t="s">
+      <c r="G17" s="214"/>
+      <c r="H17" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="208"/>
-      <c r="J17" s="207" t="s">
+      <c r="I17" s="214"/>
+      <c r="J17" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="208"/>
-      <c r="L17" s="207" t="s">
+      <c r="K17" s="214"/>
+      <c r="L17" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="207" t="s">
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="208"/>
-      <c r="Q17" s="204" t="s">
+      <c r="P17" s="214"/>
+      <c r="Q17" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="R17" s="205"/>
-      <c r="S17" s="206"/>
-      <c r="T17" s="204" t="s">
+      <c r="R17" s="216"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="U17" s="206"/>
-      <c r="V17" s="204" t="s">
+      <c r="U17" s="217"/>
+      <c r="V17" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="W17" s="206"/>
-      <c r="X17" s="201" t="s">
+      <c r="W17" s="217"/>
+      <c r="X17" s="218" t="s">
         <v>143</v>
       </c>
-      <c r="Y17" s="203"/>
+      <c r="Y17" s="219"/>
       <c r="Z17" s="209" t="s">
         <v>144</v>
       </c>
@@ -16818,56 +16818,56 @@
       <c r="C18" s="109">
         <v>20</v>
       </c>
-      <c r="D18" s="212" t="s">
+      <c r="D18" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212" t="s">
+      <c r="E18" s="207"/>
+      <c r="F18" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212" t="s">
+      <c r="G18" s="207"/>
+      <c r="H18" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212" t="s">
+      <c r="I18" s="207"/>
+      <c r="J18" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="212"/>
-      <c r="L18" s="213" t="s">
+      <c r="K18" s="207"/>
+      <c r="L18" s="208" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="214" t="s">
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="214"/>
-      <c r="Q18" s="214" t="s">
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214" t="s">
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
+      <c r="T18" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="214"/>
-      <c r="V18" s="215">
+      <c r="U18" s="202"/>
+      <c r="V18" s="201">
         <v>44197</v>
       </c>
-      <c r="W18" s="214"/>
-      <c r="X18" s="215">
+      <c r="W18" s="202"/>
+      <c r="X18" s="201">
         <v>44197</v>
       </c>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214" t="s">
+      <c r="Y18" s="202"/>
+      <c r="Z18" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA18" s="214"/>
-      <c r="AB18" s="214" t="s">
+      <c r="AA18" s="202"/>
+      <c r="AB18" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC18" s="214"/>
+      <c r="AC18" s="202"/>
       <c r="AD18" s="45"/>
       <c r="AE18" s="45"/>
       <c r="AF18" s="45"/>
@@ -16879,56 +16879,56 @@
       <c r="C19" s="109">
         <v>19</v>
       </c>
-      <c r="D19" s="212" t="s">
+      <c r="D19" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212" t="s">
+      <c r="E19" s="207"/>
+      <c r="F19" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212" t="s">
+      <c r="G19" s="207"/>
+      <c r="H19" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212" t="s">
+      <c r="I19" s="207"/>
+      <c r="J19" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="212"/>
-      <c r="L19" s="213" t="s">
+      <c r="K19" s="207"/>
+      <c r="L19" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="214" t="s">
+      <c r="M19" s="208"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="214"/>
-      <c r="Q19" s="214" t="s">
+      <c r="P19" s="202"/>
+      <c r="Q19" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R19" s="214"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="214" t="s">
+      <c r="R19" s="202"/>
+      <c r="S19" s="202"/>
+      <c r="T19" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U19" s="214"/>
-      <c r="V19" s="215">
+      <c r="U19" s="202"/>
+      <c r="V19" s="201">
         <v>44198</v>
       </c>
-      <c r="W19" s="214"/>
-      <c r="X19" s="215">
+      <c r="W19" s="202"/>
+      <c r="X19" s="201">
         <v>44198</v>
       </c>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214" t="s">
+      <c r="Y19" s="202"/>
+      <c r="Z19" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214" t="s">
+      <c r="AA19" s="202"/>
+      <c r="AB19" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC19" s="214"/>
+      <c r="AC19" s="202"/>
       <c r="AD19" s="45"/>
       <c r="AE19" s="45"/>
       <c r="AF19" s="45"/>
@@ -16940,56 +16940,56 @@
       <c r="C20" s="109">
         <v>18</v>
       </c>
-      <c r="D20" s="212" t="s">
+      <c r="D20" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212" t="s">
+      <c r="E20" s="207"/>
+      <c r="F20" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212" t="s">
+      <c r="G20" s="207"/>
+      <c r="H20" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212" t="s">
+      <c r="I20" s="207"/>
+      <c r="J20" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="212"/>
-      <c r="L20" s="213" t="s">
+      <c r="K20" s="207"/>
+      <c r="L20" s="208" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="214" t="s">
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P20" s="214"/>
-      <c r="Q20" s="214" t="s">
+      <c r="P20" s="202"/>
+      <c r="Q20" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214" t="s">
+      <c r="R20" s="202"/>
+      <c r="S20" s="202"/>
+      <c r="T20" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U20" s="214"/>
-      <c r="V20" s="215">
+      <c r="U20" s="202"/>
+      <c r="V20" s="201">
         <v>44199</v>
       </c>
-      <c r="W20" s="214"/>
-      <c r="X20" s="215">
+      <c r="W20" s="202"/>
+      <c r="X20" s="201">
         <v>44199</v>
       </c>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214" t="s">
+      <c r="Y20" s="202"/>
+      <c r="Z20" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA20" s="214"/>
-      <c r="AB20" s="214" t="s">
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC20" s="214"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="45"/>
       <c r="AE20" s="45"/>
       <c r="AF20" s="45"/>
@@ -17001,56 +17001,56 @@
       <c r="C21" s="109">
         <v>17</v>
       </c>
-      <c r="D21" s="212" t="s">
+      <c r="D21" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212" t="s">
+      <c r="E21" s="207"/>
+      <c r="F21" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212" t="s">
+      <c r="G21" s="207"/>
+      <c r="H21" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212" t="s">
+      <c r="I21" s="207"/>
+      <c r="J21" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="212"/>
-      <c r="L21" s="213" t="s">
+      <c r="K21" s="207"/>
+      <c r="L21" s="208" t="s">
         <v>160</v>
       </c>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="214" t="s">
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214" t="s">
+      <c r="P21" s="202"/>
+      <c r="Q21" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214" t="s">
+      <c r="R21" s="202"/>
+      <c r="S21" s="202"/>
+      <c r="T21" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U21" s="214"/>
-      <c r="V21" s="215">
+      <c r="U21" s="202"/>
+      <c r="V21" s="201">
         <v>44200</v>
       </c>
-      <c r="W21" s="214"/>
-      <c r="X21" s="215">
+      <c r="W21" s="202"/>
+      <c r="X21" s="201">
         <v>44200</v>
       </c>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214" t="s">
+      <c r="Y21" s="202"/>
+      <c r="Z21" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="214" t="s">
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC21" s="214"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="45"/>
       <c r="AE21" s="45"/>
       <c r="AF21" s="45"/>
@@ -17062,56 +17062,56 @@
       <c r="C22" s="109">
         <v>16</v>
       </c>
-      <c r="D22" s="212" t="s">
+      <c r="D22" s="207" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212" t="s">
+      <c r="E22" s="207"/>
+      <c r="F22" s="207" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212" t="s">
+      <c r="G22" s="207"/>
+      <c r="H22" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="I22" s="212"/>
-      <c r="J22" s="212" t="s">
+      <c r="I22" s="207"/>
+      <c r="J22" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="212"/>
-      <c r="L22" s="213" t="s">
+      <c r="K22" s="207"/>
+      <c r="L22" s="208" t="s">
         <v>163</v>
       </c>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="214" t="s">
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="214"/>
-      <c r="Q22" s="214" t="s">
+      <c r="P22" s="202"/>
+      <c r="Q22" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214" t="s">
+      <c r="R22" s="202"/>
+      <c r="S22" s="202"/>
+      <c r="T22" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U22" s="214"/>
-      <c r="V22" s="215">
+      <c r="U22" s="202"/>
+      <c r="V22" s="201">
         <v>44201</v>
       </c>
-      <c r="W22" s="214"/>
-      <c r="X22" s="215">
+      <c r="W22" s="202"/>
+      <c r="X22" s="201">
         <v>44201</v>
       </c>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="214" t="s">
+      <c r="Y22" s="202"/>
+      <c r="Z22" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA22" s="214"/>
-      <c r="AB22" s="214" t="s">
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC22" s="214"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="45"/>
@@ -17123,56 +17123,56 @@
       <c r="C23" s="109">
         <v>15</v>
       </c>
-      <c r="D23" s="212" t="s">
+      <c r="D23" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212" t="s">
+      <c r="E23" s="207"/>
+      <c r="F23" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="212"/>
-      <c r="H23" s="212" t="s">
+      <c r="G23" s="207"/>
+      <c r="H23" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="212"/>
-      <c r="J23" s="212" t="s">
+      <c r="I23" s="207"/>
+      <c r="J23" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="212"/>
-      <c r="L23" s="213" t="s">
+      <c r="K23" s="207"/>
+      <c r="L23" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213"/>
-      <c r="O23" s="214" t="s">
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="214"/>
-      <c r="Q23" s="214" t="s">
+      <c r="P23" s="202"/>
+      <c r="Q23" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R23" s="214"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214" t="s">
+      <c r="R23" s="202"/>
+      <c r="S23" s="202"/>
+      <c r="T23" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U23" s="214"/>
-      <c r="V23" s="215">
+      <c r="U23" s="202"/>
+      <c r="V23" s="201">
         <v>44202</v>
       </c>
-      <c r="W23" s="214"/>
-      <c r="X23" s="215">
+      <c r="W23" s="202"/>
+      <c r="X23" s="201">
         <v>44202</v>
       </c>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="214" t="s">
+      <c r="Y23" s="202"/>
+      <c r="Z23" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA23" s="214"/>
-      <c r="AB23" s="214" t="s">
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC23" s="214"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="45"/>
       <c r="AE23" s="45"/>
       <c r="AF23" s="45"/>
@@ -17184,56 +17184,56 @@
       <c r="C24" s="109">
         <v>14</v>
       </c>
-      <c r="D24" s="212" t="s">
+      <c r="D24" s="207" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212" t="s">
+      <c r="E24" s="207"/>
+      <c r="F24" s="207" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212" t="s">
+      <c r="G24" s="207"/>
+      <c r="H24" s="207" t="s">
         <v>169</v>
       </c>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212" t="s">
+      <c r="I24" s="207"/>
+      <c r="J24" s="207" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="212"/>
-      <c r="L24" s="213" t="s">
+      <c r="K24" s="207"/>
+      <c r="L24" s="208" t="s">
         <v>170</v>
       </c>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="214" t="s">
+      <c r="M24" s="208"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="214"/>
-      <c r="Q24" s="214" t="s">
+      <c r="P24" s="202"/>
+      <c r="Q24" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R24" s="214"/>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214" t="s">
+      <c r="R24" s="202"/>
+      <c r="S24" s="202"/>
+      <c r="T24" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U24" s="214"/>
-      <c r="V24" s="215">
+      <c r="U24" s="202"/>
+      <c r="V24" s="201">
         <v>44203</v>
       </c>
-      <c r="W24" s="214"/>
-      <c r="X24" s="215">
+      <c r="W24" s="202"/>
+      <c r="X24" s="201">
         <v>44203</v>
       </c>
-      <c r="Y24" s="214"/>
-      <c r="Z24" s="214" t="s">
+      <c r="Y24" s="202"/>
+      <c r="Z24" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA24" s="214"/>
-      <c r="AB24" s="214" t="s">
+      <c r="AA24" s="202"/>
+      <c r="AB24" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC24" s="214"/>
+      <c r="AC24" s="202"/>
       <c r="AD24" s="45"/>
       <c r="AE24" s="45"/>
       <c r="AF24" s="45"/>
@@ -17245,56 +17245,56 @@
       <c r="C25" s="109">
         <v>13</v>
       </c>
-      <c r="D25" s="212" t="s">
+      <c r="D25" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212" t="s">
+      <c r="E25" s="207"/>
+      <c r="F25" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212" t="s">
+      <c r="G25" s="207"/>
+      <c r="H25" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="212"/>
-      <c r="J25" s="212" t="s">
+      <c r="I25" s="207"/>
+      <c r="J25" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="212"/>
-      <c r="L25" s="213" t="s">
+      <c r="K25" s="207"/>
+      <c r="L25" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="213"/>
-      <c r="N25" s="213"/>
-      <c r="O25" s="214" t="s">
+      <c r="M25" s="208"/>
+      <c r="N25" s="208"/>
+      <c r="O25" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P25" s="214"/>
-      <c r="Q25" s="214" t="s">
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214" t="s">
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
+      <c r="T25" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U25" s="214"/>
-      <c r="V25" s="215">
+      <c r="U25" s="202"/>
+      <c r="V25" s="201">
         <v>44204</v>
       </c>
-      <c r="W25" s="214"/>
-      <c r="X25" s="215">
+      <c r="W25" s="202"/>
+      <c r="X25" s="201">
         <v>44204</v>
       </c>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="214" t="s">
+      <c r="Y25" s="202"/>
+      <c r="Z25" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA25" s="214"/>
-      <c r="AB25" s="214" t="s">
+      <c r="AA25" s="202"/>
+      <c r="AB25" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC25" s="214"/>
+      <c r="AC25" s="202"/>
       <c r="AD25" s="45"/>
       <c r="AE25" s="45"/>
       <c r="AF25" s="45"/>
@@ -17306,56 +17306,56 @@
       <c r="C26" s="109">
         <v>12</v>
       </c>
-      <c r="D26" s="212" t="s">
+      <c r="D26" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212" t="s">
+      <c r="E26" s="207"/>
+      <c r="F26" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212" t="s">
+      <c r="G26" s="207"/>
+      <c r="H26" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212" t="s">
+      <c r="I26" s="207"/>
+      <c r="J26" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="212"/>
-      <c r="L26" s="213" t="s">
+      <c r="K26" s="207"/>
+      <c r="L26" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="213"/>
-      <c r="N26" s="213"/>
-      <c r="O26" s="214" t="s">
+      <c r="M26" s="208"/>
+      <c r="N26" s="208"/>
+      <c r="O26" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="214"/>
-      <c r="Q26" s="214" t="s">
+      <c r="P26" s="202"/>
+      <c r="Q26" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R26" s="214"/>
-      <c r="S26" s="214"/>
-      <c r="T26" s="214" t="s">
+      <c r="R26" s="202"/>
+      <c r="S26" s="202"/>
+      <c r="T26" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U26" s="214"/>
-      <c r="V26" s="215">
+      <c r="U26" s="202"/>
+      <c r="V26" s="201">
         <v>44205</v>
       </c>
-      <c r="W26" s="214"/>
-      <c r="X26" s="215">
+      <c r="W26" s="202"/>
+      <c r="X26" s="201">
         <v>44205</v>
       </c>
-      <c r="Y26" s="214"/>
-      <c r="Z26" s="214" t="s">
+      <c r="Y26" s="202"/>
+      <c r="Z26" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA26" s="214"/>
-      <c r="AB26" s="214" t="s">
+      <c r="AA26" s="202"/>
+      <c r="AB26" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC26" s="214"/>
+      <c r="AC26" s="202"/>
       <c r="AD26" s="45"/>
       <c r="AE26" s="45"/>
       <c r="AF26" s="45"/>
@@ -17367,56 +17367,56 @@
       <c r="C27" s="109">
         <v>11</v>
       </c>
-      <c r="D27" s="212" t="s">
+      <c r="D27" s="207" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212" t="s">
+      <c r="E27" s="207"/>
+      <c r="F27" s="207" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="212"/>
-      <c r="H27" s="212" t="s">
+      <c r="G27" s="207"/>
+      <c r="H27" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="I27" s="212"/>
-      <c r="J27" s="212" t="s">
+      <c r="I27" s="207"/>
+      <c r="J27" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="212"/>
-      <c r="L27" s="213" t="s">
+      <c r="K27" s="207"/>
+      <c r="L27" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="214" t="s">
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="214"/>
-      <c r="Q27" s="214" t="s">
+      <c r="P27" s="202"/>
+      <c r="Q27" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R27" s="214"/>
-      <c r="S27" s="214"/>
-      <c r="T27" s="214" t="s">
+      <c r="R27" s="202"/>
+      <c r="S27" s="202"/>
+      <c r="T27" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U27" s="214"/>
-      <c r="V27" s="215">
+      <c r="U27" s="202"/>
+      <c r="V27" s="201">
         <v>44206</v>
       </c>
-      <c r="W27" s="214"/>
-      <c r="X27" s="215">
+      <c r="W27" s="202"/>
+      <c r="X27" s="201">
         <v>44206</v>
       </c>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="214" t="s">
+      <c r="Y27" s="202"/>
+      <c r="Z27" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA27" s="214"/>
-      <c r="AB27" s="214" t="s">
+      <c r="AA27" s="202"/>
+      <c r="AB27" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC27" s="214"/>
+      <c r="AC27" s="202"/>
       <c r="AD27" s="45"/>
       <c r="AE27" s="45"/>
       <c r="AF27" s="45"/>
@@ -17428,56 +17428,56 @@
       <c r="C28" s="109">
         <v>10</v>
       </c>
-      <c r="D28" s="212" t="s">
+      <c r="D28" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212" t="s">
+      <c r="E28" s="207"/>
+      <c r="F28" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212" t="s">
+      <c r="G28" s="207"/>
+      <c r="H28" s="207" t="s">
         <v>181</v>
       </c>
-      <c r="I28" s="212"/>
-      <c r="J28" s="212" t="s">
+      <c r="I28" s="207"/>
+      <c r="J28" s="207" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="212"/>
-      <c r="L28" s="213" t="s">
+      <c r="K28" s="207"/>
+      <c r="L28" s="208" t="s">
         <v>182</v>
       </c>
-      <c r="M28" s="213"/>
-      <c r="N28" s="213"/>
-      <c r="O28" s="214" t="s">
+      <c r="M28" s="208"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="214"/>
-      <c r="Q28" s="214" t="s">
+      <c r="P28" s="202"/>
+      <c r="Q28" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214" t="s">
+      <c r="R28" s="202"/>
+      <c r="S28" s="202"/>
+      <c r="T28" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U28" s="214"/>
-      <c r="V28" s="215">
+      <c r="U28" s="202"/>
+      <c r="V28" s="201">
         <v>44207</v>
       </c>
-      <c r="W28" s="214"/>
-      <c r="X28" s="215">
+      <c r="W28" s="202"/>
+      <c r="X28" s="201">
         <v>44207</v>
       </c>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214" t="s">
+      <c r="Y28" s="202"/>
+      <c r="Z28" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA28" s="214"/>
-      <c r="AB28" s="214" t="s">
+      <c r="AA28" s="202"/>
+      <c r="AB28" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC28" s="214"/>
+      <c r="AC28" s="202"/>
       <c r="AD28" s="45"/>
       <c r="AE28" s="45"/>
       <c r="AF28" s="45"/>
@@ -17489,56 +17489,56 @@
       <c r="C29" s="109">
         <v>9</v>
       </c>
-      <c r="D29" s="212" t="s">
+      <c r="D29" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212" t="s">
+      <c r="E29" s="207"/>
+      <c r="F29" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="212"/>
-      <c r="H29" s="212" t="s">
+      <c r="G29" s="207"/>
+      <c r="H29" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="I29" s="212"/>
-      <c r="J29" s="212" t="s">
+      <c r="I29" s="207"/>
+      <c r="J29" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="212"/>
-      <c r="L29" s="213" t="s">
+      <c r="K29" s="207"/>
+      <c r="L29" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="M29" s="213"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="214" t="s">
+      <c r="M29" s="208"/>
+      <c r="N29" s="208"/>
+      <c r="O29" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P29" s="214"/>
-      <c r="Q29" s="214" t="s">
+      <c r="P29" s="202"/>
+      <c r="Q29" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R29" s="214"/>
-      <c r="S29" s="214"/>
-      <c r="T29" s="214" t="s">
+      <c r="R29" s="202"/>
+      <c r="S29" s="202"/>
+      <c r="T29" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U29" s="214"/>
-      <c r="V29" s="215">
+      <c r="U29" s="202"/>
+      <c r="V29" s="201">
         <v>44208</v>
       </c>
-      <c r="W29" s="214"/>
-      <c r="X29" s="215">
+      <c r="W29" s="202"/>
+      <c r="X29" s="201">
         <v>44208</v>
       </c>
-      <c r="Y29" s="214"/>
-      <c r="Z29" s="214" t="s">
+      <c r="Y29" s="202"/>
+      <c r="Z29" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA29" s="214"/>
-      <c r="AB29" s="214" t="s">
+      <c r="AA29" s="202"/>
+      <c r="AB29" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC29" s="214"/>
+      <c r="AC29" s="202"/>
       <c r="AD29" s="45"/>
       <c r="AE29" s="45"/>
       <c r="AF29" s="45"/>
@@ -17550,56 +17550,56 @@
       <c r="C30" s="109">
         <v>8</v>
       </c>
-      <c r="D30" s="212" t="s">
+      <c r="D30" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212" t="s">
+      <c r="E30" s="207"/>
+      <c r="F30" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212" t="s">
+      <c r="G30" s="207"/>
+      <c r="H30" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212" t="s">
+      <c r="I30" s="207"/>
+      <c r="J30" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="K30" s="212"/>
-      <c r="L30" s="213" t="s">
+      <c r="K30" s="207"/>
+      <c r="L30" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="M30" s="213"/>
-      <c r="N30" s="213"/>
-      <c r="O30" s="214" t="s">
+      <c r="M30" s="208"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P30" s="214"/>
-      <c r="Q30" s="214" t="s">
+      <c r="P30" s="202"/>
+      <c r="Q30" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R30" s="214"/>
-      <c r="S30" s="214"/>
-      <c r="T30" s="214" t="s">
+      <c r="R30" s="202"/>
+      <c r="S30" s="202"/>
+      <c r="T30" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U30" s="214"/>
-      <c r="V30" s="215">
+      <c r="U30" s="202"/>
+      <c r="V30" s="201">
         <v>44209</v>
       </c>
-      <c r="W30" s="214"/>
-      <c r="X30" s="215">
+      <c r="W30" s="202"/>
+      <c r="X30" s="201">
         <v>44209</v>
       </c>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="214" t="s">
+      <c r="Y30" s="202"/>
+      <c r="Z30" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA30" s="214"/>
-      <c r="AB30" s="214" t="s">
+      <c r="AA30" s="202"/>
+      <c r="AB30" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC30" s="214"/>
+      <c r="AC30" s="202"/>
       <c r="AD30" s="45"/>
       <c r="AE30" s="45"/>
       <c r="AF30" s="45"/>
@@ -17611,56 +17611,56 @@
       <c r="C31" s="109">
         <v>7</v>
       </c>
-      <c r="D31" s="212" t="s">
+      <c r="D31" s="207" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212" t="s">
+      <c r="E31" s="207"/>
+      <c r="F31" s="207" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212" t="s">
+      <c r="G31" s="207"/>
+      <c r="H31" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212" t="s">
+      <c r="I31" s="207"/>
+      <c r="J31" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="K31" s="212"/>
-      <c r="L31" s="213" t="s">
+      <c r="K31" s="207"/>
+      <c r="L31" s="208" t="s">
         <v>192</v>
       </c>
-      <c r="M31" s="213"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="214" t="s">
+      <c r="M31" s="208"/>
+      <c r="N31" s="208"/>
+      <c r="O31" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P31" s="214"/>
-      <c r="Q31" s="214" t="s">
+      <c r="P31" s="202"/>
+      <c r="Q31" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R31" s="214"/>
-      <c r="S31" s="214"/>
-      <c r="T31" s="214" t="s">
+      <c r="R31" s="202"/>
+      <c r="S31" s="202"/>
+      <c r="T31" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U31" s="214"/>
-      <c r="V31" s="215">
+      <c r="U31" s="202"/>
+      <c r="V31" s="201">
         <v>44210</v>
       </c>
-      <c r="W31" s="214"/>
-      <c r="X31" s="215">
+      <c r="W31" s="202"/>
+      <c r="X31" s="201">
         <v>44210</v>
       </c>
-      <c r="Y31" s="214"/>
-      <c r="Z31" s="214" t="s">
+      <c r="Y31" s="202"/>
+      <c r="Z31" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA31" s="214"/>
-      <c r="AB31" s="214" t="s">
+      <c r="AA31" s="202"/>
+      <c r="AB31" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC31" s="214"/>
+      <c r="AC31" s="202"/>
       <c r="AD31" s="45"/>
       <c r="AE31" s="45"/>
       <c r="AF31" s="45"/>
@@ -17672,56 +17672,56 @@
       <c r="C32" s="109">
         <v>6</v>
       </c>
-      <c r="D32" s="212" t="s">
+      <c r="D32" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212" t="s">
+      <c r="E32" s="207"/>
+      <c r="F32" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="212"/>
-      <c r="H32" s="212" t="s">
+      <c r="G32" s="207"/>
+      <c r="H32" s="207" t="s">
         <v>194</v>
       </c>
-      <c r="I32" s="212"/>
-      <c r="J32" s="212" t="s">
+      <c r="I32" s="207"/>
+      <c r="J32" s="207" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="212"/>
-      <c r="L32" s="213" t="s">
+      <c r="K32" s="207"/>
+      <c r="L32" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="213"/>
-      <c r="N32" s="213"/>
-      <c r="O32" s="214" t="s">
+      <c r="M32" s="208"/>
+      <c r="N32" s="208"/>
+      <c r="O32" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214" t="s">
+      <c r="P32" s="202"/>
+      <c r="Q32" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214" t="s">
+      <c r="R32" s="202"/>
+      <c r="S32" s="202"/>
+      <c r="T32" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U32" s="214"/>
-      <c r="V32" s="215">
+      <c r="U32" s="202"/>
+      <c r="V32" s="201">
         <v>44211</v>
       </c>
-      <c r="W32" s="214"/>
-      <c r="X32" s="215">
+      <c r="W32" s="202"/>
+      <c r="X32" s="201">
         <v>44211</v>
       </c>
-      <c r="Y32" s="214"/>
-      <c r="Z32" s="214" t="s">
+      <c r="Y32" s="202"/>
+      <c r="Z32" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA32" s="214"/>
-      <c r="AB32" s="214" t="s">
+      <c r="AA32" s="202"/>
+      <c r="AB32" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC32" s="214"/>
+      <c r="AC32" s="202"/>
       <c r="AD32" s="45"/>
       <c r="AE32" s="45"/>
       <c r="AF32" s="45"/>
@@ -17733,56 +17733,56 @@
       <c r="C33" s="109">
         <v>5</v>
       </c>
-      <c r="D33" s="212" t="s">
+      <c r="D33" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212" t="s">
+      <c r="E33" s="207"/>
+      <c r="F33" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212" t="s">
+      <c r="G33" s="207"/>
+      <c r="H33" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="212"/>
-      <c r="J33" s="212" t="s">
+      <c r="I33" s="207"/>
+      <c r="J33" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="212"/>
-      <c r="L33" s="213" t="s">
+      <c r="K33" s="207"/>
+      <c r="L33" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="214" t="s">
+      <c r="M33" s="208"/>
+      <c r="N33" s="208"/>
+      <c r="O33" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P33" s="214"/>
-      <c r="Q33" s="214" t="s">
+      <c r="P33" s="202"/>
+      <c r="Q33" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R33" s="214"/>
-      <c r="S33" s="214"/>
-      <c r="T33" s="214" t="s">
+      <c r="R33" s="202"/>
+      <c r="S33" s="202"/>
+      <c r="T33" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U33" s="214"/>
-      <c r="V33" s="215">
+      <c r="U33" s="202"/>
+      <c r="V33" s="201">
         <v>44212</v>
       </c>
-      <c r="W33" s="214"/>
-      <c r="X33" s="215">
+      <c r="W33" s="202"/>
+      <c r="X33" s="201">
         <v>44212</v>
       </c>
-      <c r="Y33" s="214"/>
-      <c r="Z33" s="214" t="s">
+      <c r="Y33" s="202"/>
+      <c r="Z33" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA33" s="214"/>
-      <c r="AB33" s="214" t="s">
+      <c r="AA33" s="202"/>
+      <c r="AB33" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC33" s="214"/>
+      <c r="AC33" s="202"/>
       <c r="AD33" s="45"/>
       <c r="AE33" s="45"/>
       <c r="AF33" s="45"/>
@@ -17794,56 +17794,56 @@
       <c r="C34" s="109">
         <v>4</v>
       </c>
-      <c r="D34" s="212" t="s">
+      <c r="D34" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212" t="s">
+      <c r="E34" s="207"/>
+      <c r="F34" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="212"/>
-      <c r="H34" s="212" t="s">
+      <c r="G34" s="207"/>
+      <c r="H34" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="212"/>
-      <c r="J34" s="212" t="s">
+      <c r="I34" s="207"/>
+      <c r="J34" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="212"/>
-      <c r="L34" s="213" t="s">
+      <c r="K34" s="207"/>
+      <c r="L34" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="214" t="s">
+      <c r="M34" s="208"/>
+      <c r="N34" s="208"/>
+      <c r="O34" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P34" s="214"/>
-      <c r="Q34" s="214" t="s">
+      <c r="P34" s="202"/>
+      <c r="Q34" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R34" s="214"/>
-      <c r="S34" s="214"/>
-      <c r="T34" s="214" t="s">
+      <c r="R34" s="202"/>
+      <c r="S34" s="202"/>
+      <c r="T34" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="U34" s="214"/>
-      <c r="V34" s="215">
+      <c r="U34" s="202"/>
+      <c r="V34" s="201">
         <v>44213</v>
       </c>
-      <c r="W34" s="214"/>
-      <c r="X34" s="215">
+      <c r="W34" s="202"/>
+      <c r="X34" s="201">
         <v>44213</v>
       </c>
-      <c r="Y34" s="214"/>
-      <c r="Z34" s="214" t="s">
+      <c r="Y34" s="202"/>
+      <c r="Z34" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA34" s="214"/>
-      <c r="AB34" s="214" t="s">
+      <c r="AA34" s="202"/>
+      <c r="AB34" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC34" s="214"/>
+      <c r="AC34" s="202"/>
       <c r="AD34" s="45"/>
       <c r="AE34" s="45"/>
       <c r="AF34" s="45"/>
@@ -17855,56 +17855,56 @@
       <c r="C35" s="109">
         <v>3</v>
       </c>
-      <c r="D35" s="212" t="s">
+      <c r="D35" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212" t="s">
+      <c r="E35" s="207"/>
+      <c r="F35" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212" t="s">
+      <c r="G35" s="207"/>
+      <c r="H35" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212" t="s">
+      <c r="I35" s="207"/>
+      <c r="J35" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="K35" s="212"/>
-      <c r="L35" s="213" t="s">
+      <c r="K35" s="207"/>
+      <c r="L35" s="208" t="s">
         <v>204</v>
       </c>
-      <c r="M35" s="213"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="214" t="s">
+      <c r="M35" s="208"/>
+      <c r="N35" s="208"/>
+      <c r="O35" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P35" s="214"/>
-      <c r="Q35" s="214" t="s">
+      <c r="P35" s="202"/>
+      <c r="Q35" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R35" s="214"/>
-      <c r="S35" s="214"/>
-      <c r="T35" s="214" t="s">
+      <c r="R35" s="202"/>
+      <c r="S35" s="202"/>
+      <c r="T35" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U35" s="214"/>
-      <c r="V35" s="215">
+      <c r="U35" s="202"/>
+      <c r="V35" s="201">
         <v>44214</v>
       </c>
-      <c r="W35" s="214"/>
-      <c r="X35" s="215">
+      <c r="W35" s="202"/>
+      <c r="X35" s="201">
         <v>44214</v>
       </c>
-      <c r="Y35" s="214"/>
-      <c r="Z35" s="214" t="s">
+      <c r="Y35" s="202"/>
+      <c r="Z35" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA35" s="214"/>
-      <c r="AB35" s="214" t="s">
+      <c r="AA35" s="202"/>
+      <c r="AB35" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC35" s="214"/>
+      <c r="AC35" s="202"/>
       <c r="AD35" s="45"/>
       <c r="AE35" s="45"/>
       <c r="AF35" s="45"/>
@@ -17916,56 +17916,56 @@
       <c r="C36" s="109">
         <v>2</v>
       </c>
-      <c r="D36" s="212" t="s">
+      <c r="D36" s="207" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212" t="s">
+      <c r="E36" s="207"/>
+      <c r="F36" s="207" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212" t="s">
+      <c r="G36" s="207"/>
+      <c r="H36" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="212"/>
-      <c r="J36" s="212" t="s">
+      <c r="I36" s="207"/>
+      <c r="J36" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="K36" s="212"/>
-      <c r="L36" s="213" t="s">
+      <c r="K36" s="207"/>
+      <c r="L36" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="214" t="s">
+      <c r="M36" s="208"/>
+      <c r="N36" s="208"/>
+      <c r="O36" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="P36" s="214"/>
-      <c r="Q36" s="214" t="s">
+      <c r="P36" s="202"/>
+      <c r="Q36" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="R36" s="214"/>
-      <c r="S36" s="214"/>
-      <c r="T36" s="214" t="s">
+      <c r="R36" s="202"/>
+      <c r="S36" s="202"/>
+      <c r="T36" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="U36" s="214"/>
-      <c r="V36" s="215">
+      <c r="U36" s="202"/>
+      <c r="V36" s="201">
         <v>44215</v>
       </c>
-      <c r="W36" s="214"/>
-      <c r="X36" s="215">
+      <c r="W36" s="202"/>
+      <c r="X36" s="201">
         <v>44215</v>
       </c>
-      <c r="Y36" s="214"/>
-      <c r="Z36" s="214" t="s">
+      <c r="Y36" s="202"/>
+      <c r="Z36" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="AA36" s="214"/>
-      <c r="AB36" s="214" t="s">
+      <c r="AA36" s="202"/>
+      <c r="AB36" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="AC36" s="214"/>
+      <c r="AC36" s="202"/>
       <c r="AD36" s="45"/>
       <c r="AE36" s="45"/>
       <c r="AF36" s="45"/>
@@ -17977,56 +17977,56 @@
       <c r="C37" s="112">
         <v>1</v>
       </c>
-      <c r="D37" s="219" t="s">
+      <c r="D37" s="205" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219" t="s">
+      <c r="E37" s="205"/>
+      <c r="F37" s="205" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219" t="s">
+      <c r="G37" s="205"/>
+      <c r="H37" s="205" t="s">
         <v>209</v>
       </c>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219" t="s">
+      <c r="I37" s="205"/>
+      <c r="J37" s="205" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="219"/>
-      <c r="L37" s="220" t="s">
+      <c r="K37" s="205"/>
+      <c r="L37" s="206" t="s">
         <v>210</v>
       </c>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="217" t="s">
+      <c r="M37" s="206"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="P37" s="217"/>
-      <c r="Q37" s="217" t="s">
+      <c r="P37" s="203"/>
+      <c r="Q37" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="R37" s="217"/>
-      <c r="S37" s="217"/>
-      <c r="T37" s="217" t="s">
+      <c r="R37" s="203"/>
+      <c r="S37" s="203"/>
+      <c r="T37" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="U37" s="217"/>
-      <c r="V37" s="218">
+      <c r="U37" s="203"/>
+      <c r="V37" s="204">
         <v>44216</v>
       </c>
-      <c r="W37" s="217"/>
-      <c r="X37" s="218">
+      <c r="W37" s="203"/>
+      <c r="X37" s="204">
         <v>44216</v>
       </c>
-      <c r="Y37" s="217"/>
-      <c r="Z37" s="217" t="s">
+      <c r="Y37" s="203"/>
+      <c r="Z37" s="203" t="s">
         <v>149</v>
       </c>
-      <c r="AA37" s="217"/>
-      <c r="AB37" s="217" t="s">
+      <c r="AA37" s="203"/>
+      <c r="AB37" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="AC37" s="217"/>
+      <c r="AC37" s="203"/>
       <c r="AD37" s="45"/>
       <c r="AE37" s="45"/>
       <c r="AF37" s="45"/>
@@ -18246,6 +18246,253 @@
     </row>
   </sheetData>
   <mergeCells count="271">
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:P36"/>
     <mergeCell ref="X35:Y35"/>
     <mergeCell ref="Z35:AA35"/>
     <mergeCell ref="C39:AC40"/>
@@ -18270,253 +18517,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19848,11 +19848,11 @@
       <c r="F36" s="60"/>
       <c r="G36" s="63"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="175" t="s">
+      <c r="I36" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="176"/>
-      <c r="K36" s="177"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="175"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -19885,9 +19885,9 @@
       <c r="F37" s="60"/>
       <c r="G37" s="63"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="180"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="178"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
@@ -20125,13 +20125,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H39:AA40"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I36:K37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H6:AA7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -20141,6 +20134,13 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="H39:AA40"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I36:K37"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H6:AA7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -22279,11 +22279,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H54:AA55"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I49:K50"/>
-    <mergeCell ref="L49:M50"/>
-    <mergeCell ref="I51:K52"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
@@ -22297,6 +22292,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="H54:AA55"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I49:K50"/>
+    <mergeCell ref="L49:M50"/>
+    <mergeCell ref="I51:K52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22989,14 +22989,14 @@
       <c r="L19" s="60"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="175" t="s">
+      <c r="O19" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="176"/>
-      <c r="T19" s="177"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="175"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="60"/>
@@ -23026,12 +23026,12 @@
       <c r="L20" s="60"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="179"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="179"/>
-      <c r="T20" s="180"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="178"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="60"/>
@@ -23820,11 +23820,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="N12:V13"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="O19:T20"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -23837,6 +23832,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="N12:V13"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="O19:T20"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25092,11 +25092,11 @@
       <c r="F34" s="60"/>
       <c r="G34" s="63"/>
       <c r="H34" s="64"/>
-      <c r="I34" s="175" t="s">
+      <c r="I34" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="176"/>
-      <c r="K34" s="177"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="175"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
@@ -25129,9 +25129,9 @@
       <c r="F35" s="60"/>
       <c r="G35" s="63"/>
       <c r="H35" s="64"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="178"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -25404,13 +25404,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="I34:K35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H6:AA7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -25420,6 +25413,13 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="I34:K35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H6:AA7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25936,11 +25936,11 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="175" t="s">
+      <c r="P14" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="177"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="175"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
@@ -25973,9 +25973,9 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="180"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="178"/>
       <c r="S15" s="99"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
@@ -26943,11 +26943,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="J10:Y11"/>
-    <mergeCell ref="P14:R15"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -26960,6 +26955,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="J10:Y11"/>
+    <mergeCell ref="P14:R15"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -27651,14 +27651,14 @@
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="175" t="s">
+      <c r="N19" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="176"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="177"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="175"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="60"/>
@@ -27688,12 +27688,12 @@
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="179"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="180"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="178"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="60"/>
@@ -28483,11 +28483,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="M12:U13"/>
-    <mergeCell ref="O17:R18"/>
-    <mergeCell ref="N19:S20"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -28500,6 +28495,11 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="M12:U13"/>
+    <mergeCell ref="O17:R18"/>
+    <mergeCell ref="N19:S20"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -30063,7 +30063,7 @@
   <dimension ref="A1:FU43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -30405,9 +30405,7 @@
       <c r="F5" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="77">
-        <v>100</v>
-      </c>
+      <c r="G5" s="77"/>
       <c r="H5" s="77" t="s">
         <v>19</v>
       </c>
@@ -30456,9 +30454,7 @@
       <c r="F6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="77">
-        <v>10</v>
-      </c>
+      <c r="G6" s="77"/>
       <c r="H6" s="77" t="s">
         <v>19</v>
       </c>
@@ -35585,16 +35581,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AB12:AG12"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AB12:AG12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -37539,16 +37535,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AB11:AG11"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AB11:AG11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -39416,7 +39412,7 @@
   <dimension ref="A1:FU43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G15"/>
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -44755,7 +44751,7 @@
   <dimension ref="A1:FU43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AD27"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -49627,7 +49623,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="AA7" sqref="AA7:AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -50076,7 +50072,7 @@
       <c r="Y7" s="75"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -50123,7 +50119,7 @@
       <c r="Y8" s="75"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB8" s="75"/>
       <c r="AC8" s="75"/>
@@ -50170,7 +50166,7 @@
       <c r="Y9" s="80"/>
       <c r="Z9" s="79"/>
       <c r="AA9" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB9" s="75"/>
       <c r="AC9" s="75"/>
@@ -50217,7 +50213,7 @@
       <c r="Y10" s="80"/>
       <c r="Z10" s="79"/>
       <c r="AA10" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB10" s="75"/>
       <c r="AC10" s="75"/>
@@ -50264,7 +50260,7 @@
       <c r="Y11" s="80"/>
       <c r="Z11" s="79"/>
       <c r="AA11" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB11" s="75"/>
       <c r="AC11" s="75"/>
@@ -50311,7 +50307,7 @@
       <c r="Y12" s="80"/>
       <c r="Z12" s="79"/>
       <c r="AA12" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB12" s="75"/>
       <c r="AC12" s="75"/>
@@ -50358,7 +50354,7 @@
       <c r="Y13" s="75"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB13" s="75"/>
       <c r="AC13" s="75"/>
@@ -50405,7 +50401,7 @@
       <c r="Y14" s="75"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB14" s="75"/>
       <c r="AC14" s="75"/>
@@ -50452,7 +50448,7 @@
       <c r="Y15" s="75"/>
       <c r="Z15" s="79"/>
       <c r="AA15" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB15" s="75"/>
       <c r="AC15" s="75"/>
@@ -50499,7 +50495,7 @@
       <c r="Y16" s="75"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB16" s="75"/>
       <c r="AC16" s="75"/>
@@ -50546,7 +50542,7 @@
       <c r="Y17" s="75"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB17" s="75"/>
       <c r="AC17" s="75"/>
@@ -50593,7 +50589,7 @@
       <c r="Y18" s="75"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB18" s="75"/>
       <c r="AC18" s="75"/>
@@ -50638,7 +50634,7 @@
       <c r="Y19" s="75"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB19" s="75"/>
       <c r="AC19" s="75"/>
@@ -50683,7 +50679,7 @@
       <c r="Y20" s="75"/>
       <c r="Z20" s="79"/>
       <c r="AA20" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB20" s="75"/>
       <c r="AC20" s="75"/>
@@ -50728,7 +50724,7 @@
       <c r="Y21" s="75"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="78" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="AB21" s="75"/>
       <c r="AC21" s="75"/>
@@ -51474,12 +51470,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:P5"/>
-    <mergeCell ref="Q4:AA4"/>
-    <mergeCell ref="AB4:AG5"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="Q5:U5"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -51489,6 +51479,12 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:P5"/>
+    <mergeCell ref="Q4:AA4"/>
+    <mergeCell ref="AB4:AG5"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -51506,7 +51502,7 @@
   <dimension ref="A1:FU41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -51957,7 +51953,7 @@
       <c r="Y7" s="75"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB7" s="75"/>
       <c r="AC7" s="75"/>
@@ -52004,7 +52000,7 @@
       <c r="Y8" s="75"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB8" s="75"/>
       <c r="AC8" s="75"/>
@@ -52051,7 +52047,7 @@
       <c r="Y9" s="80"/>
       <c r="Z9" s="79"/>
       <c r="AA9" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB9" s="75"/>
       <c r="AC9" s="75"/>
@@ -52098,7 +52094,7 @@
       <c r="Y10" s="80"/>
       <c r="Z10" s="79"/>
       <c r="AA10" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB10" s="75"/>
       <c r="AC10" s="75"/>
@@ -52145,7 +52141,7 @@
       <c r="Y11" s="80"/>
       <c r="Z11" s="79"/>
       <c r="AA11" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB11" s="75"/>
       <c r="AC11" s="75"/>
@@ -52192,7 +52188,7 @@
       <c r="Y12" s="80"/>
       <c r="Z12" s="79"/>
       <c r="AA12" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB12" s="75"/>
       <c r="AC12" s="75"/>
@@ -52239,7 +52235,7 @@
       <c r="Y13" s="75"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB13" s="75"/>
       <c r="AC13" s="75"/>
@@ -52286,7 +52282,7 @@
       <c r="Y14" s="75"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB14" s="75"/>
       <c r="AC14" s="75"/>
@@ -52333,7 +52329,7 @@
       <c r="Y15" s="75"/>
       <c r="Z15" s="79"/>
       <c r="AA15" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB15" s="75"/>
       <c r="AC15" s="75"/>
@@ -52380,7 +52376,7 @@
       <c r="Y16" s="75"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB16" s="75"/>
       <c r="AC16" s="75"/>
@@ -52427,7 +52423,7 @@
       <c r="Y17" s="75"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB17" s="75"/>
       <c r="AC17" s="75"/>
@@ -52474,7 +52470,7 @@
       <c r="Y18" s="75"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="78" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="AB18" s="75"/>
       <c r="AC18" s="75"/>
@@ -52600,7 +52596,7 @@
       <c r="X21" s="75"/>
       <c r="Y21" s="75"/>
       <c r="Z21" s="76"/>
-      <c r="AA21" s="81"/>
+      <c r="AA21" s="78"/>
       <c r="AB21" s="75"/>
       <c r="AC21" s="75"/>
       <c r="AD21" s="75"/>
@@ -53310,12 +53306,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:P5"/>
-    <mergeCell ref="Q4:AA4"/>
-    <mergeCell ref="AB4:AG5"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="Q5:U5"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -53325,6 +53315,12 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:P5"/>
+    <mergeCell ref="Q4:AA4"/>
+    <mergeCell ref="AB4:AG5"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -53341,7 +53337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
@@ -55164,8 +55160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -63908,12 +63904,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H6:AA7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -63923,6 +63913,12 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H6:AA7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -64290,13 +64286,13 @@
       <c r="F10" s="63"/>
       <c r="G10" s="60"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="175" t="s">
+      <c r="I10" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="177"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="175"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60"/>
@@ -64327,11 +64323,11 @@
       <c r="F11" s="63"/>
       <c r="G11" s="60"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="180"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="178"/>
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
       <c r="P11" s="60"/>
@@ -64361,23 +64357,23 @@
       <c r="E12" s="172"/>
       <c r="F12" s="172"/>
       <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
+      <c r="H12" s="182"/>
       <c r="I12" s="172"/>
       <c r="J12" s="172"/>
       <c r="K12" s="172"/>
       <c r="L12" s="172"/>
       <c r="M12" s="172"/>
       <c r="N12" s="172"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
       <c r="Q12" s="172"/>
-      <c r="R12" s="174"/>
+      <c r="R12" s="183"/>
       <c r="S12" s="172"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
       <c r="V12" s="172"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
       <c r="Y12" s="60"/>
       <c r="Z12" s="83"/>
       <c r="AA12" s="87"/>
@@ -64396,9 +64392,9 @@
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
       <c r="K13" s="172"/>
       <c r="L13" s="172"/>
       <c r="M13" s="172"/>
@@ -64407,12 +64403,12 @@
       <c r="P13" s="60"/>
       <c r="Q13" s="172"/>
       <c r="R13" s="172"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="182"/>
-      <c r="W13" s="182"/>
-      <c r="X13" s="182"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
       <c r="Y13" s="63"/>
       <c r="Z13" s="60"/>
       <c r="AA13" s="65"/>
@@ -65442,14 +65438,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H38:AA39"/>
-    <mergeCell ref="I10:M11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="H6:AA7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -65459,15 +65456,14 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="H38:AA39"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
